--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -720,7 +720,7 @@
     <t>Rp番号(剤グループ番号)についてのsystem値</t>
   </si>
   <si>
-    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOID-urlとして定義された。http://jpfhir.jp/fhir/core/mhlw/IdSystem/Medication-RPGroupNumberで固定される。</t>
   </si>
   <si>
     <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
@@ -729,7 +729,7 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.81</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/Medication-RPGroupNumber</t>
   </si>
   <si>
     <t>Identifier.system</t>
